--- a/500all/speech_level/speeches_CHRG-114hhrg94319.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94319.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman, and thank you for holding this hearing.    The Deepwater Horizon catastrophe was a topic that we didn't get a chance to discuss very often in the previous Congress, so I appreciate your willingness to open this conversation back up on the fifth anniversary of the spill.    Unfortunately, the title of this hearing, and the testimony of some of today's witnesses makes me feel like it is a big pat-on-the-back session, rather than real oversight. We have three industry witnesses here to tell us what a great job industry has done, one agency witness to tell us what a great job the agency has done, and one witness to tell us about the impacts of the greatest environmental disaster in our country's history.    If we really want to look at whether the industry is safer, we would invite the families of the aforementioned 11 workers who perished aboard that rig, or the families of the 12 offshore workers who have been killed by offshore accidents since Deepwater Horizon. We would invite the oystermen who have seen their harvests decline by two-thirds since the spill. We would invite the fishermen who are still pulling up red snapper with skin lesions, and shrimp with no eyes. We would invite the hotel and restaurant owners who still find massive tar mats on the beaches, and who are more vulnerable to floods and hurricanes after years of barrier islands shrinking. We would invite the people suffering health impacts from the persistent oil that keeps appearing in their waterways and on their shores.    I don't doubt there have been some improvements in the past 5 years. But we need to ask ourselves how prepared are we for the next human error or the next failed piece of machinery, not just how hard we are working to prevent Deepwater Horizon from repeating itself. We shouldn't be lulled into a false sense of security. There were 40 relatively quiet years after our first major offshore blowout. We were assured that this showed how safe everything was. So, 5 years without a blowout isn't the end of the story. It certainly doesn't convince me that we should allow offshore drilling in the Arctic or in the Atlantic. We should not be playing Russian roulette with our environment and coastal tourism economies.    And where drilling is occurring, there is a lot more that we can do. While industry and the Interior Department may be patting themselves on the back, Congress should be working overtime to make up for its failure to act after the Deepwater Horizon disaster. That failure is not something we should be proud of. We need to raise the liability limit for oil spills and enact tough penalties for offshore safety and environmental violations.    Unfortunately, industry will always have an incentive to cut corners and expand into more hostile environments, and the efforts of regulators will always be uneven. I do not believe that offshore drilling will ever be safe enough to rest on our laurels. The Majority might want this hearing to be the last chapter in this saga; if we are not careful, it could just be a prelude.    We should be moving toward renewable, carbon-free technologies like solar, geothermal, and offshore wind. Unfortunately, this is not the direction we seem to be going. Hopefully, there will be time to change before the next great offshore disaster occurs.    And, with that, Mr. Chairman, thank you, and I yield back.</t>
   </si>
   <si>
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman. And thank you for holding this hearing on the safety in offshore energy production. As has been said, this marks the 5-year anniversary this week of the horrific tragedy aboard the offshore oil platform, Deepwater Horizon, where the explosion took 11 lives and devastated families. The ecological damage was extensive. The tragedy was like a shot heard 'round the world, in terms of how we look at offshore energy safety, and rightly so.    Fixing the safety shortfalls that led to the explosion isn't just the right thing to do for those workers, their families, and the environment. It is a necessity, going forward, because offshore energy production is a necessity. Offshore energy production is essential for the United States to achieve lasting energy security, which also brings about economic security, national security, and job security for the men and women in the offshore industry.    So, the answer is not to hold up offshore energy production. The answer is to make offshore energy production safer than it has ever been in history for both the people and the environment. We must proceed deliberately and responsibly toward safety improvements, relying on science, innovation, and measurable results. We need to encourage creativity and innovation that is ingrained in American culture and tradition.    I thank our panels for coming today to discuss strides made both by industry and the regulatory community since Deepwater Horizon occurred. We must make sure the Federal regulatory framework that was developed in response to the tragedy stays nimble and keeps pace with the technological innovation that has occurred since then. Striking this balance between worker and environmental safety and our energy security will be an ongoing challenge, but America is up to the challenge, as I believe today's panel will begin to reveal.    Thank you. Mr. Chairman.</t>
   </si>
   <si>
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you very much, Mr. Chairman, and thank you, Ranking Member Grijalva, for giving me this opportunity to speak. And I want to thank each of you for acknowledging that this is roughly the 5-year anniversary of the tragic Deepwater Horizon spill. And I also want to acknowledge that this is Earth Day, and that is an annual occurrence on this date every year that came about after Senator Gaylord Nelson visited my coastline, the coastline that I am privileged to represent, in 1970 and saw, even a year later, the tragedy that was the 1969 oil spill of Platform A that I represent.    So, I do represent a district that experienced the brunt of the 1969 Santa Barbara oil spill. Our coastline still has multiple oil platforms visible from our shoreline. And many of my constituents and I have a very strong and personal interest in offshore drilling safety.    One of the issues that I do not want to lose sight of in this discussion today is the importance of safety in both deepwater and shallow water drilling. The Interior Department and industry have understandably focused most of their efforts in the last 5 years on improving deepwater drilling safety, because we saw firsthand just how unprepared we were for something terrible to happen 1 mile under the ocean. As companies continue to move into deeper and deeper water, they will encounter more and more dangerous conditions and greater technical difficulties. So continual focus on deepwater drilling is absolutely essential.    But the industry still works in shallow waters, as well. And that is what I don't want to lose sight of in this hearing. After Deepwater Horizon, we were told by industry that, while new safety standards might be appropriate for deepwater, things were much safer in shallow water operations. While the rest of the country watched oil billowing uncontrollably into the Gulf of Mexico, wondering whether offshore drilling could ever be done safely at all, shallow water drillers criticized the Interior Department for focusing more on responding to the spill than issuing new drilling permits. For the record, I think the Department of the Interior made the right choice, and the only choice, in that situation, but clearly, not everyone agreed.    However, in November of 2010, barely 7 months after the blowout began, an executive for a shallow water drilling contractor named Hercules Offshore wrote an editorial touting the safety of their operations. In this editorial he wrote, and I quote, ``We've been drilling shallow water wells safely and without major incident since 1949.'' The contractor was apparently referring only to waters in the U.S. portion of the Gulf of Mexico, because both the 1969 Santa Barbara and the 1979 Ixtoc blowouts occurred in water less than 200 feet deep.    But he went on to say, again I quote, ``Shallow water drilling takes place in mature, predictable, well-known reservoirs. We use proven technologies and well-controlled equipment with our blow-out preventers located right on the rig, allowing for immediate access and constant inspection and maintenance.'' This sounds great. But I would like permission to show you something.    [Slide]</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Salerno</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Salerno. Yes, sir.    The Chairman. The Chair recognizes Mr. Salerno now for your testimony.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Yes, thank you, Mr. Chairman. Thank you for holding this hearing. And, Director Salerno, thank you for being here today.    This week Secretary Jewell said that offshore drilling is safe, especially under the Federal reforms that have been put into place since Macondo. Do you agree with her statement?</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you. And thank you, Vice Admiral Salerno, for being here. It is great to have you here.    You know, I come from the coastal state of Massachusetts. And, like many of the Gulf states which were so deeply impacted by the BP oil spill, the health of our ocean, the Atlantic, directly impacts the health of many communities in Massachusetts, as well as the other New England coastal states. And we depend on the ocean and coastal areas for shipping, for commercial fishing and tourism, as well as for alternative energy development.    In fact, Massachusetts is home to the most profitable port in the Nation, New Bedford, Massachusetts, which brings in over $400 million a year in commercial fishery landings. The New England region, as a whole, brings in over $1.1 billion in commercial landings annually, which, obviously, has a ripple effect on our entire regional community.    As you know, the Department of the Interior recently issued the draft 5-year Outer Continental Shelf Oil and Gas Leasing Program, which included a proposed lease sale in the Atlantic Ocean. The BP oil spill underscores the real risks associated with offshore drilling. And, despite testimony today, I remain concerned that safety reforms are insufficient. I strongly oppose this proposed lease sale, and hope it will be removed from the final plan.    In your written testimony about agency reforms, you said that BSEE approaches safety on the Outer Continental Shelf by assessing and managing risk. You also said that the Bureau works with scientific organizations and industry to identify and quantify operational risks. We have not had drilling off the coast of the Atlantic in decades, and the most recent wells were abandoned because they were not commercially viable.    So, my question is, as you are relooking at the way in which you do work, given the risks that we know are real, has BSEE ever conducted any assessments of drilling safety off the coast of the Atlantic?</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman. Put the slide up, please.    [Slide]</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman. I have come to associate these oversight hearings with the very colorful and sometimes lurid titles about government overreach and water grabs, and things like that. So I was kind of surprised to see this very technical, academic title today: ``Innovations in Safety Since the 2010 Macondo Incident.'' I didn't even know what the Macondo Incident was.    Turns out the Majority's messaging department has once again been very on-message. The message with this milestone anniversary of the tragic Deepwater Horizon spill is to not talk about that spill. In fact, we are even renaming it. We are calling it the Macondo Incident. And we are going to talk euphemistically and wishfully about all the advances in innovation that have made deepwater drilling and other exploration safe now.    It is a great attempt at messaging. But, unfortunately, it is not very accurate. There is a lot that we could be saying on this milestone about what happened with the Deepwater Horizon rig. We could be talking about the inherent dangers of oil drilling and exploration, the loss of life that continues to happen, the exploding trains that we are experiencing all too often around the country, the inherent environmental damage and risk that we see with our unhealthy reliance on oil. We could talk about the full extent of the environmental damage from the Deepwater Horizon spill.    We could talk about the Barrier Islands in Louisiana that have eroded and begun to disappear because of the loss of vegetation, as the mangroves were encased in oil. I was watching a show last night where somebody took a boat up to one of these islands, and just the propeller action from that boat started stirring up oil that was beneath the surface.    We could talk about the massive oil mats that are being found beneath the surface that nobody talks about. They are not visible from the surface. But I was glad Mr. Graves raised this issue, because if we are going to commemorate this important milestone, we need to be honest about it. We can't whitewash the full consequences of our unhealthy reliance on big oil, and the inherent dangers of some of these drilling operations.    Now, I know that the Majority would like to have that be the narrative today, how far we have come, how safe drilling and exploration is, because, obviously, there is an agenda to take drilling and exploration into the Arctic, onto the Atlantic Coast. But we need to think very carefully about that, and make sure that we are drawing the right lessons from our own very recent history.    So, Director Salerno, I just want to ask you about the Arctic, for example. Would you agree that the Arctic is probably one of the more hostile climates that we could attempt to do oil exploration and drilling in?</t>
   </si>
   <si>
@@ -256,9 +232,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. You can get your can out, but that is----    The Chairman. You are up.</t>
   </si>
   <si>
@@ -418,9 +391,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wittman. Thank you, Mr. Chairman. And, Director Salerno, thank you so much for joining us.    As you know, in Virginia, the vast majority of our congressional delegation and state officials are in favor of offshore energy development. I see that in the proposed 2017-2022 draft 5-year plan that Virginia Lease 220 is in consideration. I hope that that continues in consideration, more than just the exploration, but into the development phase. I can tell you that we feel very strongly that energy production in Lease 220 can take place safely, especially at 50 miles offshore. We believe in those areas it can take place very, very safely.    Let me ask this. I know an earlier question was similar, but I want to ask specifically to the lessons learned from the Deepwater Horizon disaster, understanding not only where technology was not applied properly, but also where there was a breakdown in decisionmaking, both for the drilling company, both in BP, and within the regulatory community. There was a whole slate of things. If you look at that historically, you can see it at different points. There were problems that led to that particular disaster.    Having learned what happened in studying the Deepwater Horizon disaster, understanding where those problems exist and, as you spoke of, and Secretary Jewell spoke of, the lessons learned, and how those lessons learned today are being applied to safety standards for the industry in both drilling and in the development of that energy, do you believe, with those lessons learned, that in Lease 220, that drilling can take place safely, and that we can apply those lessons learned in those areas, particularly within that lease area?</t>
   </si>
   <si>
@@ -451,9 +421,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman. Thank you, Director Salerno, for joining us today. I know being here isn't probably the way you wanted to spend your Wednesday morning.    One of the things, though, that we have learned from the Deepwater Horizon oil spill is that we are not very good at getting the oil out of the water. And I want to build on what Representative Capps was talking about, because--and I know you spoke about improved technology.    But even though many people think of oil spill response as going out there with the booms and the skimmers and taking it all out of the water--and you say it has gotten better, but I have been told the estimates are that only about 3 percent of the oil released by the Macondo well was collected that way. For the rest we either had to burn it, which took care of only about 5 percent, or use millions of gallons of chemical dispersants, which don't actually remove the oil from the water, and as we all know, have their own side effects and things that we become very worried about, what is happening when those chemicals are in the water.    And it appears that our ability to physically remove oil from water is no better now than it was decades ago. And, obviously, we have all been talking about how that concerns us, and I know that you are working on it. It is a threat to all of us, and each of us is also worried about the regions that we come from.    In 2010, the largest inland oil spill that has occurred in our Nation's history occurred in Marshall, Michigan, and it resulted in 843,000 gallons polluting the Kalamazoo River. This heavy crude oil, as you know, was difficult to clean up, and although all portions of the river are finally open to the public for use, nearly 4 years after the spill we still don't fully understand the impact of what the spill has had on the ecological systems of the regions. And there are issues, as you know, and we are all talking about it.    One problem in particular that matters in the Midwest is our existing cleanup equipment, and how it will work in icy conditions, if an oil pipeline spill were ever to happen in the Great Lakes, which, God forbid, will never happen. But we keep praying these things aren't going to happen, and they do. The Coast Guard has been conducting equipment deployment tests in icy waters off the northern coast of Michigan in recent years, but those tests don't look at how well this equipment can remove oil when ice is present.    What is BSEE doing to improve our ability to respond to oil spills in icy conditions? And do we have assurances that we will be able to get more oil out of the water than we did when the Deepwater Horizon occurred? Which I know you talked a little bit about when Lois was asking you this.</t>
   </si>
   <si>
@@ -475,9 +442,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman, and appreciate you being here, Director. I think we owe it to the 11 individuals who lost their lives to be here and discuss and examine safety improvements, and I appreciate you being here.    It is fair to say that it is absolutely not possible to eliminate all risk from the industry. Is that correct?</t>
   </si>
   <si>
@@ -553,9 +517,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you. Director Salerno, in the aftermath of the Deepwater Horizon disaster, a number of safety reforms have been enacted or implemented, including the establishment of the Bureau of Safety and Environmental Enforcement, as a separate entity charged with regulating drilling operations on the Outer Continental Shelf. This has led to improvements. I should say much improvement in processes for inspection, investigating, and enforcement.    But we have also heard about the role human error and inadequate training programs played in this tragedy. A competent and highly trained workforce will play a key role in preventing these types of disasters in the future.    My two questions for you are, can you expand on the challenges the Bureau is facing regarding the recruitment and retention of skilled workers? And, two, which job classifications are the most difficult to staff? And what steps is the Bureau taking to remedy the situation? Included in that is pay scale.</t>
   </si>
   <si>
@@ -589,9 +550,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you, Mr. Chairman. Thank you, Mr. Salerno, for being here.    Most generally, in other disasters, we see a lack of communication across different Federal agencies, or stove-piping, as one of the points of failure. For instance, the issue of the 911 Commission report. In the wake of the Macondo, the response was opposite. The split-up of the former Materials and Management Service into three separate agencies, splitting up the revenue collection into a separate bureau makes sense. However, I believe the mission of safe offshore operations is not exclusive to BSEE or BOEM. Also, the factor of safety into leasing decisions and revenue exploration plans.    Would it not be beneficial to have these two agencies working in concert together, given the missions, while different, have the same end goal? Safe and measured offshore energy deployment--in fact, would safety be further enhanced by having these two agencies interact more regularly, especially because BOEM is reviewing exploration plans and BSEE is reviewing application permits? Both of these documents set plans developing prospect of the overall goal of safety does not end at the agency's doorstep.</t>
   </si>
   <si>
@@ -652,30 +610,18 @@
     <t xml:space="preserve">    Mr. Grijalva. No.    The Chairman. Director, we appreciate your time and your patience to be with us here. I thank you for coming.    Under our rules, there may be other questions that other Members who may or may not be here have of you. The rule asks that our hearing record stay open for 10 days for responses. We would appreciate it if you would be responsive to any other questions that we may send to you.    With that, once again we thank you for joining us. And we would like to call up the second panel, which includes Ms. Holly Hopkins, who is a Senior Policy Advisor for Upstream and American Petroleum Institute; Charlie Williams, who is the Executive Director of the Center for Offshore Safety; Mr. David Coatney, who is the Managing Director of HWCG; and Dr. Steven Murawski, who is a professor at the University of Southern Florida.    And if you could join us, I would appreciate that, as well.    [Pause.]    The Chairman. We thank you for coming the great distances that you have come, and also for your patience with us so far.    I have to remind the witnesses--same rule as was applied earlier--your oral statements are limited to 5 minutes, but your entire statement here is on the record.    And, once again, you have the clock in front of you. When it hits red, that means the 5 minutes have elapsed, and I would like you to end at that time.    I can give you just a second to get prepared. Ms. Hopkins, are you ready to go? All right, let's start with you, and I will recognize you for your 5-minute testimony.</t>
   </si>
   <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hopkins. Thank you. Good morning, Chairman Bishop and Ranking Member Grijalva, and members of the committee. My name is Holly Hopkins. I am a Senior Policy Advisor at the American Petroleum Institute. My responsibilities include advocating for and advancing offshore safety.    Following the Macondo incident, I managed two of the four joint industry task forces that were created to make recommendations to further enhance offshore safety. I am also extensively engaged in the development of API standards that promote safe and responsible development of the Nation's offshore oil and natural gas resources.    API has more than 625 member companies which represent all segments of America's oil and natural gas industry. Our industry supports 9.8 million American jobs, 400,000 jobs in the Gulf of Mexico alone, and 8 percent of the U.S. economy. We appreciate the opportunity to participate in today's hearing.    I would like to take a moment to remember the 11 workers who lost their lives on April 20, 2010, as well as their families. These husbands, fathers, sons, and brothers are a reminder that we must continue to improve safety in our industry. While the industry is committed to a goal of zero fatalities, zero injuries, and zero incidents, our industry takes any safety and environmental incident as a call to learn and to improve technology, training, operational procedures, and industry standards and best practices.    Given the limited time for my opening statement, I refer you to my written testimony, which goes into further detail than I will be able to present today.    Immediately after the Macondo incident, the U.S. oil and gas industry launched a comprehensive review of offshore safety to identify potential improvements in offshore operating procedures, equipment, subsea wall control and containment, and oil spill preparedness and response. Four joint industry task forces were formed to focus on critical areas of Gulf of Mexico offshore activity. Teams were comprised of industry expert members at API, the International Association of Drilling Contractors, the Independent Petroleum Association of America, the National Ocean Industries Association, and the U.S. Oil and Gas Association.    Sessions began in early spring of 2010 to provide recommendations to the U.S. Department of the Interior. The joint industry task forces were not involved in a review of the incident. Rather, they brought together industry experts to identify best practices with the definitive aim of enhancing safety and environmental protection. The ultimate goal for these task forces was to improve industry drilling standards, to form comprehensive safe drilling operations, well containment and intervention capability, and oil spill response capability, not only through evaluation and revision of industry guidelines and procedures, but also active engagement with regulatory processes.    Many of the improvements have been made through creation or revision of API global standards. The API standards process is accredited by the American National Standards Institute, and all API standards are reviewed on a regular basis to ensure they remain current. API standards are developed in an open and transparent process, and are the most widely cited oil industry standards from Federal, state, and international regulators.    API has 224 exploration and production standards that address offshore operations. And since 2010, we have published over 100 new or revised E&amp;P standards. Some of the highlights include new documents on deepwater well design and construction, well construction interface guidelines, subsea capping stacks, high-pressure, high-temperature design guidelines, personal protective equipment selection for oil spill responders, and then revised and updated standards on blowout prevention equipment systems, isolating potential flow zones during well construction, remotely operated tools and interfaces on subsea production systems, sub-surface safety valve equipment, and choke-and-kill systems.    The Macondo incident was a tragedy that cost 11 lives, and the result was a call to action to industry to identify and develop multiple improvements in offshore equipment, operating procedures, well design, well control equipment, and overall safety systems. These changes have significantly enhanced the industry's ability to prevent, contain, and respond to any potential incident or spill. These activities have created a model safety program in the Gulf of Mexico and beyond for workers and the environment.    As always, standards and best practices will continue to be reviewed on an ongoing basis in order to protect the environment and promote the safe and responsible development of energy resources that help fuel the American economy. The oil and natural gas industry and the Federal Government have, together, taken great strides to protect workers and the environment to improve the safety of offshore drilling operations. As the co-chairs of the President's Oil Spill Commission said in 2014, ``Offshore drilling is safer than it was 4 years ago.'' The industry stands committed to safe and environmentally responsible development.    Thank you. That concludes my statement.</t>
   </si>
   <si>
-    <t>Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thanks to the committee for this opportunity to talk to you about the Center for Offshore Safety.    Following the Macondo incident in the U.S. Gulf of Mexico there has been renewed focus on promoting the highest level of safety for the offshore oil and gas industry. Based on Macondo studies and regulatory changes, SEMS became a requirement, a regulatory requirement right after Macondo. The focus in the United States has been on both enhancing and developing performance-based safety and environmental management systems, or SEMS.    These are assessed by third-party auditing, to make sure that they are effective, and they are actually delivering what is expected of those kinds of systems. And they also are sustainable learning systems, where the feedback from what has been learned is fed back into how can we make improvements to make these systems even more effective. So, safety is dependent on the technology, it is dependent upon the standards, and it is dependent on how you manage, plan, and execute the projects. And there was a lot of discussion about this earlier today in the committee.    So, why has this focus really been so much on SEMS? And that is the sole mission for Center for Offshore Safety, is how to make SEMS more effective, and how do we learn and feed back into SEMS processes.    The first part, like I said, is that it changes the--it has a focus on embedding safety into how you plan, how you execute, how you implement, how you define hazards, and how do you maintain barriers. It embeds this thinking into your management processes. It also changes to performance-based, which says that companies will--there is a certain basic framework companies will say how they are going to respond to this framework, and then they will be assessed against how effective and how well they are doing what they said, and how effective those safety management systems are that they have embedded. So it really drives accountability also, in a different way.    There also must be--a key part of this is norms and motivations for leadership and decisionmakers to constantly think about safety, and behave in ways that maximize safety.    The Center for Offshore Safety was formed as a collaborative effort in the industry, but it was also part of the Presidential Commission recommendation. It was part of the industry studies looking at what other groups had done that looked at SEMS, and making SEMS effective in other industries. So, we were put together to collect the information, to do the analysis, and to develop good practices to close any gaps or opportunities that we saw.    The COS and the industry members and the industry are committed to improving SEMS performance, and we are doing that in several ways. The first one is people that are members of the Center for Offshore Safety make commitments to certain performance requirements. But the most important thing that we have is a collaboration opportunity, where the industry can get together and share and learn about safety environmental management systems and collaborate.    And also, through the audits and through other performance measures, like safety performance indicators and learning from incident data that we collect, we can learn together. You know, we can find opportunities to improve and continuously improve. So that is one of the main opportunities that we have here.    And since this is a continuous learning process, it is really beneficial; there are companies that have had SEMS for a long time, have been doing really well. There are a few companies that were new to SEMS after the regulation. This process allows all companies, even companies that were running good plans, to learn how to make those good plans even better, and to focus on those improvements.    We have developed a lot of tools that are already in place right now. We have issued our first annual report that I have here that talks about what are the areas we are going to focus on for improvement in the future, based on the data that we have collected. And we have also developed and have in place tools for accrediting third-party auditors and for making sure third-party auditors have the correct training, and the third-party auditors have the correct background to deliver good audits, and deliver the information that we have developed.    So, our focus is and always will be this focus, laser focus, on safety and environmental management systems, what we can learn about them, and how we can make those better for the industry. And certainly our thoughts will always remain with the families and with the people that were lost in the Macondo, but it is a key driver, it pushes us ahead on making the improvements that need to be made in these management systems. Thank you.</t>
   </si>
   <si>
-    <t>Coatney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coatney. Thank you, Chairman Bishop, Ranking Member Grijalva, members of the committee. I appreciate the opportunity to testify before you today. My name is David Coatney, Managing Director of HWCG LLC, a deepwater well containment consortium, formerly called Helix Well Containment Group. I appreciate the opportunity to share with the committee the oil and gas industry's capacity in general, with specific focus on HWCG for quickly and comprehensively responding to a deepwater well blowout for the protection of people, property, and the environment.    First, a little bit about me. I am a fourth-generation family member of southwest Louisiana and I have been working in the oil and gas industry for 40 years. I received my petroleum engineering degree from Louisiana State University in 1977, and commenced working for Marathon Oil Company in the Gulf of Mexico. I have worked in multiple positions, drilling, completions, and production operations, offshore and on, USA and international. I was the offshore installation manager in the North Sea, managed the giant Yates Field in west Texas, and held positions of engineering manager and international production manager.    I provided field development coordination for Rocky Gas development projects during reconstruction, and was Swift Energy's Vice President of Production. Finally, I have been HWCG's Managing Director since early 2011. Throughout my career, a focus on industry and professional standards in the promotion of safe, efficient, and soundly engineered developments has been the baseline.    Five years ago, the deepwater oil industry suffered a loss. Many focused on the released oil. And while the environment costs were significant, we will never forget the loss of those 11 people, and will continue to do all we can to avoid another incident.    While I believe the industry has always been safety conscious, the Macondo tragedy represented a defining challenge that forced all of us to become even more cognizant of safety. Through concerted efforts of the Bureau of Safety and Environmental Enforcement, the U.S. Coast Guard, and consortiums such as HWCG, we have focused on leveraging the collaborative powers of thousands of man-years of industry experience to set a new bar for response to a deepwater containment event.    Months of the Deepwater Horizon well releasing oil into the Gulf was a hardship on all. It would have been a greater loss if we had stopped deepwater production all together. The industry took an introspective look to improve, and confirmed need for immediate access to certain large-scale equipment, including special purpose equipment called capping stacks. The Deepwater Horizon response success capping the well is a blueprint for HWCG's well containment plan.    HWCG, a consortium of 16 deepwater oil and gas companies, was developed through collaborative efforts of members and industry-servicing entities in close cooperation with the BSEE and the U.S. Coast Guard. The greatest improvement in emergency response since Macondo is maintenance of an integrated comprehensive response solution, trained frequently across the year with members ready for immediate deployment.    There are two containment consortiums in the Gulf, others for international and multiple capping stacks, matching pressure and flow requirements of wells. HWCG's solution is founded on a model anchored on fit for purpose, with collaboration and mutual aid as cornerstones, is based on tried-and-tested equipment proven on Macondo, is supported by frequent meetings of technical experts, contains a detailed well containment plan, and has established response protocols with conformance to NIMS guidelines.    HWCG has over 250 mutual aid subject matter experts available to assist each other during a response. And finally, HWCG's equipment is immediately deployable and technology current through daily use in support of ongoing exploration and development projects. HWCG was tested by the regulators in 2013, through an actual deployment of a capping stack on the seafloor in the Gulf in 5,000 feet of water. Even with a weather hold, it took less than 6 days--a vast improvement, considering the Macondo deployment of nearly 90 days.    HWCG's solution, with capabilities of 130,000 barrels per day, many times Macondo's flows, is a comprehensive well containment response model made up of equipment, people, procedures, and processes.    Thank you for the opportunity to share our story. I would be happy to entertain questions.</t>
   </si>
   <si>
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Well, I appreciate that, Mr. Chairman. Thank you very much.    After listening to the testimony that I was able to hear today--first of all, appreciate you guys being with us this morning--I certainly would not agree that this is just a pat-on-the-back hearing, but I think it is a very important session that we are having this morning. I appreciate that this is a necessary look at where we are today, how we could advance needed energy production, while at the same time being as certain as possible to have requirements in place so that industry meets and follows safety requirements for personnel, as well as the environment.    So, along those lines, just a couple of questions, if I may. And certainly this could be for anyone, but I was thinking perhaps Ms. Hopkins and Mr. Coatney first.    First of all, there are timelines involved throughout the offshore energy process, from leasing, to exploration, to drilling, production, and more. But in the last couple of years, the industry has had to adhere to an ever-growing number of regulations meant to help ensure that production is conducted in the most safe and environmentally responsible manner possible, a goal that, clearly, everyone shares.    Industry, for its part, needs to be certain that it is feasible to meet all the regulatory deadlines before embarking on something as capital-intensive as offshore production. Without that certainty, it seems the industry will decrease operations in the long run, which would hurt production and have a negative impact on America's energy security.    Do you think the timelines contained throughout the statutes still give industry enough time to do its job, even in view of the ever-growing number of boxes that need to be checked before operations can happen?</t>
   </si>
   <si>
@@ -823,9 +769,6 @@
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman. My question is for Dr. Murawski. The 5-year anniversary of this horrific oil spill has brought us some very slick television ads from British Petroleum, showing healthy wildlife and pristine waters, talking about the unprecedented mitigation efforts, suggesting that all is well in the Gulf.    But what we don't see are pictures of a place such as Cat Island, Louisiana. And I have a poster here, too. One is before the Deepwater Horizon spill on the left. So what you see there is a well-vegetated barrier island providing all sorts of ecosystem and hurricane safety services for that area. And on the right what you see is a completely de-vegetated and, actually, shrunken barrier island that has reduced in size, because all the vegetation was killed. The vegetation was holding the land in place, and it has begun to erode and, literally, disappear before our eyes.    Could you speak to this, and perhaps some other barrier island impacts that we don't see in those slick BP TV commercials?</t>
   </si>
   <si>
-    <t>Murawski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Murawski. Thank you for the question. I haven't been to Cat Island specifically, but I have spent a considerable amount of time in Barataria Bay, and places like Bay Jimmy, where, as Mr. Graves said, the oil still exists.    One of the phenomena we see there is that most of this oil exists a few feet into the marsh. And what has happened over time is, because of the toxicity of the oil, it actually kills the roots of the marsh grass, and the roots of the marsh grass are basically a matrix that keeps the land in place. So, we have seen accelerated erosion off of those marshes, as the marsh grasses died back. And that certainly is occurring in those places where it is most oiled, and probably occurring on these barrier islands, as well.</t>
   </si>
   <si>
@@ -899,9 +842,6 @@
   </si>
   <si>
     <t>400618</t>
-  </si>
-  <si>
-    <t>Jim Costa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman and members of the committee, and thank my colleague from California, Lois Capps, for allowing me to ask some questions. I have another appointment I need to get to.    Obviously, we have discussed here today, under the category of lessons learned, 5 years later, what we have done to deal with the challenges of deepwater exploration, and the definitions of deepwater exploration now, with new science and technologies, is far greater depth of drilling range than ever imagined, probably, 20 years ago. But with that comes risks, and we saw those risks, you know, in the worst way develop 5 years ago with the spill in the Gulf.    We, obviously, have a great deal of drilling activity taking place, and expansion of proposed drilling in various parts of the Atlantic and Alaska, as was noted.    I am wondering, Mr. Williams and maybe Ms. Hopkins, what the takeaway is here. I mean we have seen the changes of how the Department of the Interior has implemented both safety standards on the drilling safety rule, workplace safety rule, blowout preventers, production safety rule. Supposedly, one person can stop a production well if they believe something is amiss.    Under the category of lessons learned and takeaways, what would you say was the greatest? And can you imagine in the future--the environmental impacts, obviously, in the Gulf are still being felt. But what would you describe, Mr. Williams, under the category of lessons learned, notwithstanding the changes in the--I had been one that had argued for years we ought to change the Mineral and Management Services, and obviously, the Administration did do that. Is it operating better now, under the new reorganization?</t>
@@ -1468,11 +1408,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1492,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1518,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1544,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1570,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1596,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1622,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1648,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1674,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1700,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1726,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1752,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1778,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1804,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1830,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1856,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1882,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1908,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1934,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1960,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1986,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2012,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2038,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2066,11 +1960,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2090,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2116,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2142,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2168,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2194,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2220,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2246,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2272,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2298,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2324,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2350,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2376,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2402,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2428,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2454,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2480,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2506,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2532,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2558,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2584,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2610,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2636,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2662,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2688,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2714,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2740,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2766,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2792,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2818,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2844,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2870,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2896,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2922,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2948,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2974,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3000,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>79</v>
-      </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3026,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3052,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3078,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3104,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3130,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3156,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3182,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3208,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3234,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3260,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3286,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3312,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3338,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3364,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3390,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3416,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3442,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3468,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3494,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3520,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3546,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3572,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3598,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3624,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3650,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3676,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3702,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3728,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3754,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3780,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3806,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3832,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3858,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3884,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3910,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3936,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3962,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3988,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4014,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4040,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4066,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4092,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4118,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4144,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4170,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
-      </c>
-      <c r="G106" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4196,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4222,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4248,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4274,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4300,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4326,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4352,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4378,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>133</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
-      <c r="H114" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4404,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
-      </c>
-      <c r="G115" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4430,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4456,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4482,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4508,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4534,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4560,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
-      </c>
-      <c r="G121" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4586,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4612,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4638,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4664,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4690,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4716,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4742,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4768,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4794,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4820,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>152</v>
-      </c>
-      <c r="G131" t="s">
-        <v>153</v>
-      </c>
-      <c r="H131" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4846,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4872,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4898,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4924,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4950,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4976,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5002,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5028,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>152</v>
-      </c>
-      <c r="G139" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5054,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5080,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>152</v>
-      </c>
-      <c r="G141" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5106,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5132,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5158,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5184,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>152</v>
-      </c>
-      <c r="G145" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5210,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>178</v>
-      </c>
-      <c r="G146" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5236,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5262,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>178</v>
-      </c>
-      <c r="G148" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5288,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>144</v>
-      </c>
-      <c r="G149" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5314,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5340,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>144</v>
-      </c>
-      <c r="G151" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5366,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5392,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>144</v>
-      </c>
-      <c r="G153" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5418,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5444,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>144</v>
-      </c>
-      <c r="G155" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5470,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>190</v>
-      </c>
-      <c r="G156" t="s">
-        <v>191</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5496,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5522,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>190</v>
-      </c>
-      <c r="G158" t="s">
-        <v>191</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5548,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5574,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>190</v>
-      </c>
-      <c r="G160" t="s">
-        <v>191</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5600,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5626,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>190</v>
-      </c>
-      <c r="G162" t="s">
-        <v>191</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5654,11 +5272,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5678,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5706,11 +5320,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5730,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5758,11 +5368,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5782,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5808,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5834,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5860,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5886,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5912,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5938,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
-      </c>
-      <c r="G174" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5966,11 +5560,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5990,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="G176" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6016,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6042,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6068,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>218</v>
-      </c>
-      <c r="G179" t="s">
-        <v>219</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6094,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6120,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6146,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>218</v>
-      </c>
-      <c r="G182" t="s">
-        <v>219</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6172,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6198,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>218</v>
-      </c>
-      <c r="G184" t="s">
-        <v>219</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6224,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6250,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>218</v>
-      </c>
-      <c r="G186" t="s">
-        <v>219</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6278,11 +5848,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6302,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6330,11 +5896,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6354,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6382,11 +5944,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6406,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6434,11 +5992,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6458,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6486,11 +6040,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6510,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6538,11 +6088,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6562,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6590,11 +6136,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6614,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6642,11 +6184,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6666,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6694,11 +6232,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6718,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6746,11 +6280,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6770,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6798,11 +6328,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6822,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6850,11 +6376,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6874,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6902,11 +6424,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6926,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6954,11 +6472,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6978,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>21</v>
-      </c>
-      <c r="G214" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7004,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>25</v>
-      </c>
-      <c r="G215" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7030,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7056,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>25</v>
-      </c>
-      <c r="G217" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7082,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7108,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7134,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
-      </c>
-      <c r="G220" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7160,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7186,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7212,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7238,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>25</v>
-      </c>
-      <c r="G224" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7264,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7290,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>25</v>
-      </c>
-      <c r="G226" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7316,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>64</v>
-      </c>
-      <c r="G227" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7342,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>21</v>
-      </c>
-      <c r="G228" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7368,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>64</v>
-      </c>
-      <c r="G229" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7394,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
-      </c>
-      <c r="G230" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7420,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>64</v>
-      </c>
-      <c r="G231" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7446,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
-      </c>
-      <c r="G232" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7472,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>64</v>
-      </c>
-      <c r="G233" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7498,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>152</v>
-      </c>
-      <c r="G234" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7524,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7550,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>152</v>
-      </c>
-      <c r="G236" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7576,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7602,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>152</v>
-      </c>
-      <c r="G238" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7628,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>21</v>
-      </c>
-      <c r="G239" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7654,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>152</v>
-      </c>
-      <c r="G240" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7680,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>21</v>
-      </c>
-      <c r="G241" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7706,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>152</v>
-      </c>
-      <c r="G242" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7732,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>21</v>
-      </c>
-      <c r="G243" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7758,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>152</v>
-      </c>
-      <c r="G244" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7784,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>21</v>
-      </c>
-      <c r="G245" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7810,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>152</v>
-      </c>
-      <c r="G246" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7836,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7862,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>152</v>
-      </c>
-      <c r="G248" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7888,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>21</v>
-      </c>
-      <c r="G249" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7914,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>152</v>
-      </c>
-      <c r="G250" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7940,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>21</v>
-      </c>
-      <c r="G251" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7966,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>152</v>
-      </c>
-      <c r="G252" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7992,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>294</v>
-      </c>
-      <c r="G253" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8018,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>21</v>
-      </c>
-      <c r="G254" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8044,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>294</v>
-      </c>
-      <c r="G255" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8070,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>21</v>
-      </c>
-      <c r="G256" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8096,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>294</v>
-      </c>
-      <c r="G257" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8122,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>21</v>
-      </c>
-      <c r="G258" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8148,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>294</v>
-      </c>
-      <c r="G259" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8174,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>21</v>
-      </c>
-      <c r="G260" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8200,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>294</v>
-      </c>
-      <c r="G261" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8226,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>21</v>
-      </c>
-      <c r="G262" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8252,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>294</v>
-      </c>
-      <c r="G263" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8278,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>21</v>
-      </c>
-      <c r="G264" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8304,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>294</v>
-      </c>
-      <c r="G265" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8330,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>21</v>
-      </c>
-      <c r="G266" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8356,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>294</v>
-      </c>
-      <c r="G267" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8382,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>21</v>
-      </c>
-      <c r="G268" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8408,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>294</v>
-      </c>
-      <c r="G269" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8434,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>21</v>
-      </c>
-      <c r="G270" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8460,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>294</v>
-      </c>
-      <c r="G271" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8486,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
+        <v>275</v>
+      </c>
+      <c r="G272" t="s"/>
+      <c r="H272" t="s">
         <v>294</v>
-      </c>
-      <c r="G272" t="s">
-        <v>295</v>
-      </c>
-      <c r="H272" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8512,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>294</v>
-      </c>
-      <c r="G273" t="s">
+        <v>275</v>
+      </c>
+      <c r="G273" t="s"/>
+      <c r="H273" t="s">
         <v>295</v>
-      </c>
-      <c r="H273" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8538,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>294</v>
-      </c>
-      <c r="G274" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8564,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
-      </c>
-      <c r="G275" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8590,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>17</v>
-      </c>
-      <c r="G276" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8616,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>21</v>
-      </c>
-      <c r="G277" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8642,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>17</v>
-      </c>
-      <c r="G278" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8668,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>21</v>
-      </c>
-      <c r="G279" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8694,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>17</v>
-      </c>
-      <c r="G280" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8720,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>21</v>
-      </c>
-      <c r="G281" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8746,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>17</v>
-      </c>
-      <c r="G282" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8772,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8798,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>21</v>
-      </c>
-      <c r="G284" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8824,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>21</v>
-      </c>
-      <c r="G285" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8850,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>21</v>
-      </c>
-      <c r="G286" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8876,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>21</v>
-      </c>
-      <c r="G287" t="s">
-        <v>216</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8902,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>21</v>
-      </c>
-      <c r="G288" t="s">
-        <v>212</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8928,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>21</v>
-      </c>
-      <c r="G289" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8956,11 +8320,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8980,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>21</v>
-      </c>
-      <c r="G291" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9008,11 +8368,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9032,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>21</v>
-      </c>
-      <c r="G293" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9060,11 +8416,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9086,11 +8440,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9112,11 +8464,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9136,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>21</v>
-      </c>
-      <c r="G297" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9164,11 +8512,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9188,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>21</v>
-      </c>
-      <c r="G299" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9216,11 +8560,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9240,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>21</v>
-      </c>
-      <c r="G301" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9266,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>21</v>
-      </c>
-      <c r="G302" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9292,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>21</v>
-      </c>
-      <c r="G303" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9318,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>21</v>
-      </c>
-      <c r="G304" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9344,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>21</v>
-      </c>
-      <c r="G305" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9370,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>21</v>
-      </c>
-      <c r="G306" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9396,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>21</v>
-      </c>
-      <c r="G307" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9422,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>21</v>
-      </c>
-      <c r="G308" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9448,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>21</v>
-      </c>
-      <c r="G309" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9474,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>21</v>
-      </c>
-      <c r="G310" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9500,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>21</v>
-      </c>
-      <c r="G311" t="s">
-        <v>214</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
